--- a/fao_prices_undernourishment.xlsx
+++ b/fao_prices_undernourishment.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5344586183df5bc6/Documents/LSE/Year 2/PP434/jennafow.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0559663B-1B12-4FB6-8D5A-617D2FE20766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{0559663B-1B12-4FB6-8D5A-617D2FE20766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26629A3A-A826-4E71-B159-9932DF11D8CD}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{18D95D09-9B91-40AF-96B9-AFD9392C3A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="fao_prices_undernourishment" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fao_prices_undernourishment!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="372">
   <si>
     <t>Area Code (ISO3)</t>
   </si>
@@ -914,12 +917,6 @@
   </si>
   <si>
     <t>Niger</t>
-  </si>
-  <si>
-    <t>VEN</t>
-  </si>
-  <si>
-    <t>Venezuela (Bolivarian Republic of)</t>
   </si>
   <si>
     <t>BGD</t>
@@ -2003,10 +2000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAAF561-153F-43E1-9F22-78CAC155B7C0}">
-  <dimension ref="A1:E185"/>
+  <dimension ref="A1:E184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2034,407 +2031,407 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>364</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>365</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1">
-        <v>119.95963</v>
+        <v>14659.34245</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>337</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1">
-        <v>120.128525</v>
+        <v>7726.5243810000002</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>286</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>287</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1">
-        <v>119.32396</v>
+        <v>6456.7022370000004</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>235</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1">
-        <v>119.388002</v>
+        <v>4893.0079100000003</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1">
-        <v>120.67914</v>
+        <v>971.015579</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>283</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1">
-        <v>152.98501899999999</v>
+        <v>730.37021500000003</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="1">
-        <v>110.63306300000001</v>
+        <v>640.58297200000004</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>316</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>317</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>173.40572</v>
+        <v>479.08714199999997</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1">
-        <v>121.21906</v>
+        <v>433.31791299999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>318</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>319</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>108.486695</v>
+        <v>339.79650600000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>368</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>369</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="1">
-        <v>113.315945</v>
+        <v>327.63935700000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>38.299999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>292</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>293</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1">
-        <v>106.732547</v>
+        <v>292.92170700000003</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>346</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>347</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="1">
-        <v>172.27748700000001</v>
+        <v>289.65348399999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>324</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>325</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="1">
-        <v>113.526945</v>
+        <v>270.44344999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="1">
-        <v>104.657467</v>
+        <v>267.37776100000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>259</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="1">
-        <v>121.936277</v>
+        <v>255.31961100000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>358</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>359</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="1">
-        <v>106.499259</v>
+        <v>254.611244</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="1">
-        <v>112.223727</v>
+        <v>234.37659099999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="1">
-        <v>106.27377300000001</v>
+        <v>219.251484</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>274</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="1">
-        <v>107.82478500000001</v>
+        <v>215.498538</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="1">
-        <v>104.46483499999999</v>
+        <v>212.01289399999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="1">
-        <v>115.535107</v>
+        <v>210.245598</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>348</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>349</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="1">
-        <v>141.87629999999999</v>
+        <v>204.826221</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="1">
-        <v>138.91157000000001</v>
+        <v>202.79040499999999</v>
       </c>
       <c r="E25" s="1">
         <v>2.5</v>
@@ -2442,16 +2439,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="1">
-        <v>135.921277</v>
+        <v>199.919735</v>
       </c>
       <c r="E26" s="1">
         <v>2.5</v>
@@ -2459,16 +2456,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="1">
-        <v>115.10941200000001</v>
+        <v>189.27584899999999</v>
       </c>
       <c r="E27" s="1">
         <v>2.5</v>
@@ -2476,33 +2473,33 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>343</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="1">
-        <v>119.027939</v>
+        <v>181.23598200000001</v>
       </c>
       <c r="E28" s="1">
-        <v>2.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="1">
-        <v>189.27584899999999</v>
+        <v>179.27202199999999</v>
       </c>
       <c r="E29" s="1">
         <v>2.5</v>
@@ -2510,16 +2507,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="1">
-        <v>154.248796</v>
+        <v>177.92365799999999</v>
       </c>
       <c r="E30" s="1">
         <v>2.5</v>
@@ -2527,84 +2524,84 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>326</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>327</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="1">
-        <v>177.92365799999999</v>
+        <v>177.83291299999999</v>
       </c>
       <c r="E31" s="1">
-        <v>2.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>294</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>295</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="1">
-        <v>116.634242</v>
+        <v>176.731908</v>
       </c>
       <c r="E32" s="1">
-        <v>2.5</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>302</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>303</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="1">
-        <v>129.56630000000001</v>
+        <v>176.615601</v>
       </c>
       <c r="E33" s="1">
-        <v>2.5</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="1">
-        <v>164.42158499999999</v>
+        <v>176.529436</v>
       </c>
       <c r="E34" s="1">
-        <v>2.5</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="1">
-        <v>147.719741</v>
+        <v>176.525384</v>
       </c>
       <c r="E35" s="1">
         <v>2.5</v>
@@ -2612,101 +2609,101 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="1">
-        <v>119.344388</v>
+        <v>174.25227699999999</v>
       </c>
       <c r="E36" s="1">
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="1">
-        <v>145.38390799999999</v>
+        <v>173.40572</v>
       </c>
       <c r="E37" s="1">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="1">
-        <v>136.70213100000001</v>
+        <v>172.27748700000001</v>
       </c>
       <c r="E38" s="1">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="1">
-        <v>118.2321</v>
+        <v>172.18510800000001</v>
       </c>
       <c r="E39" s="1">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>362</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>363</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="1">
-        <v>117.885795</v>
+        <v>165.614273</v>
       </c>
       <c r="E40" s="1">
-        <v>2.5</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="1">
-        <v>121.7</v>
+        <v>164.42158499999999</v>
       </c>
       <c r="E41" s="1">
         <v>2.5</v>
@@ -2714,50 +2711,50 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>308</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>309</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="1">
-        <v>110.53</v>
+        <v>164.10015899999999</v>
       </c>
       <c r="E42" s="1">
-        <v>2.5</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>338</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>339</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="1">
-        <v>131.69999999999999</v>
+        <v>163.012382</v>
       </c>
       <c r="E43" s="1">
-        <v>2.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="1">
-        <v>116</v>
+        <v>162.03356700000001</v>
       </c>
       <c r="E44" s="1">
         <v>2.5</v>
@@ -2765,67 +2762,67 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>360</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>361</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="1">
-        <v>136.171741</v>
+        <v>161.51747499999999</v>
       </c>
       <c r="E45" s="1">
-        <v>2.5</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="1">
-        <v>112.5</v>
+        <v>158.44855000000001</v>
       </c>
       <c r="E46" s="1">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="1">
-        <v>114.75</v>
+        <v>155.39521500000001</v>
       </c>
       <c r="E47" s="1">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="1">
-        <v>124.86412799999999</v>
+        <v>154.248796</v>
       </c>
       <c r="E48" s="1">
         <v>2.5</v>
@@ -2833,84 +2830,84 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="1">
-        <v>114.15372000000001</v>
+        <v>152.98501899999999</v>
       </c>
       <c r="E49" s="1">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="1">
-        <v>149.59456700000001</v>
+        <v>152.205658</v>
       </c>
       <c r="E50" s="1">
-        <v>2.5</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>245</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="1">
-        <v>121.703627</v>
+        <v>151.907792</v>
       </c>
       <c r="E51" s="1">
-        <v>2.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="1">
-        <v>96.428146999999996</v>
+        <v>149.9</v>
       </c>
       <c r="E52" s="1">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="1">
-        <v>108.743324</v>
+        <v>149.59456700000001</v>
       </c>
       <c r="E53" s="1">
         <v>2.5</v>
@@ -2918,33 +2915,33 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>334</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>335</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="1">
-        <v>114.4</v>
+        <v>149.59157500000001</v>
       </c>
       <c r="E54" s="1">
-        <v>2.5</v>
+        <v>19.100000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="1">
-        <v>199.919735</v>
+        <v>148.861502</v>
       </c>
       <c r="E55" s="1">
         <v>2.5</v>
@@ -2952,16 +2949,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="1">
-        <v>125.393333</v>
+        <v>147.719741</v>
       </c>
       <c r="E56" s="1">
         <v>2.5</v>
@@ -2969,84 +2966,84 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>370</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>371</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="1">
-        <v>137.21039999999999</v>
+        <v>147.70191700000001</v>
       </c>
       <c r="E57" s="1">
-        <v>2.5</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>272</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>273</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="1">
-        <v>142.5241</v>
+        <v>145.97813199999999</v>
       </c>
       <c r="E58" s="1">
-        <v>2.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="1">
-        <v>118.32</v>
+        <v>145.55068399999999</v>
       </c>
       <c r="E59" s="1">
-        <v>2.5</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>216</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
+        <v>217</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="1">
-        <v>120.151996</v>
+        <v>145.44933599999999</v>
       </c>
       <c r="E60" s="1">
-        <v>2.5</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="1">
-        <v>128.61823200000001</v>
+        <v>145.38390799999999</v>
       </c>
       <c r="E61" s="1">
         <v>2.5</v>
@@ -3054,50 +3051,50 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>298</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>299</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="1">
-        <v>179.27202199999999</v>
+        <v>145.08532299999999</v>
       </c>
       <c r="E62" s="1">
-        <v>2.5</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>344</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>345</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
       </c>
       <c r="D63" s="1">
-        <v>132.64829599999999</v>
+        <v>144.63201900000001</v>
       </c>
       <c r="E63" s="1">
-        <v>2.5</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64" s="1">
-        <v>120.05</v>
+        <v>142.5241</v>
       </c>
       <c r="E64" s="1">
         <v>2.5</v>
@@ -3105,67 +3102,67 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
       </c>
       <c r="D65" s="1">
-        <v>114.00696600000001</v>
+        <v>141.87629999999999</v>
       </c>
       <c r="E65" s="1">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
+        <v>227</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
       </c>
       <c r="D66" s="1">
-        <v>125.21743600000001</v>
+        <v>140.48623599999999</v>
       </c>
       <c r="E66" s="1">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>332</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>333</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
       </c>
       <c r="D67" s="1">
-        <v>110.4</v>
+        <v>140.30956</v>
       </c>
       <c r="E67" s="1">
-        <v>2.5</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="B68" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
       </c>
       <c r="D68" s="1">
-        <v>148.861502</v>
+        <v>138.91157000000001</v>
       </c>
       <c r="E68" s="1">
         <v>2.5</v>
@@ -3190,50 +3187,50 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>142</v>
+        <v>312</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>313</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="1">
-        <v>119.16766</v>
+        <v>137.91769199999999</v>
       </c>
       <c r="E70" s="1">
-        <v>2.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>264</v>
       </c>
       <c r="B71" t="s">
-        <v>145</v>
+        <v>265</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
       </c>
       <c r="D71" s="1">
-        <v>126.47829400000001</v>
+        <v>137.23385099999999</v>
       </c>
       <c r="E71" s="1">
-        <v>2.5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
       </c>
       <c r="D72" s="1">
-        <v>202.79040499999999</v>
+        <v>137.21039999999999</v>
       </c>
       <c r="E72" s="1">
         <v>2.5</v>
@@ -3241,33 +3238,33 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>254</v>
       </c>
       <c r="B73" t="s">
-        <v>149</v>
+        <v>255</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
       </c>
       <c r="D73" s="1">
-        <v>133.80000000000001</v>
+        <v>136.731694</v>
       </c>
       <c r="E73" s="1">
-        <v>2.5</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
       </c>
       <c r="D74" s="1">
-        <v>162.03356700000001</v>
+        <v>136.70213100000001</v>
       </c>
       <c r="E74" s="1">
         <v>2.5</v>
@@ -3275,33 +3272,33 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="B75" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
       </c>
       <c r="D75" s="1">
-        <v>132.772595</v>
+        <v>136.35886199999999</v>
       </c>
       <c r="E75" s="1">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="1">
-        <v>118.70692</v>
+        <v>136.171741</v>
       </c>
       <c r="E76" s="1">
         <v>2.5</v>
@@ -3309,16 +3306,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="B77" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="1">
-        <v>123.35</v>
+        <v>135.921277</v>
       </c>
       <c r="E77" s="1">
         <v>2.5</v>
@@ -3326,50 +3323,50 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>290</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
       </c>
       <c r="D78" s="1">
-        <v>121.607945</v>
+        <v>135.81716700000001</v>
       </c>
       <c r="E78" s="1">
-        <v>2.5</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>301</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
       </c>
       <c r="D79" s="1">
-        <v>121.079431</v>
+        <v>135.29825299999999</v>
       </c>
       <c r="E79" s="1">
-        <v>2.5</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="1">
-        <v>101.987809</v>
+        <v>133.80000000000001</v>
       </c>
       <c r="E80" s="1">
         <v>2.5</v>
@@ -3377,33 +3374,33 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="B81" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
       </c>
       <c r="D81" s="1">
-        <v>433.31791299999998</v>
+        <v>133.64243999999999</v>
       </c>
       <c r="E81" s="1">
-        <v>2.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="1">
-        <v>210.245598</v>
+        <v>132.772595</v>
       </c>
       <c r="E82" s="1">
         <v>2.5</v>
@@ -3411,16 +3408,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="1">
-        <v>112.6</v>
+        <v>132.64829599999999</v>
       </c>
       <c r="E83" s="1">
         <v>2.5</v>
@@ -3428,50 +3425,50 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
       <c r="B84" t="s">
-        <v>171</v>
+        <v>253</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
       </c>
       <c r="D84" s="1">
-        <v>118.17542400000001</v>
+        <v>132.188335</v>
       </c>
       <c r="E84" s="1">
-        <v>2.5</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B85" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
       </c>
       <c r="D85" s="1">
-        <v>176.525384</v>
+        <v>132.05778599999999</v>
       </c>
       <c r="E85" s="1">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
       </c>
       <c r="D86" s="1">
-        <v>267.37776100000002</v>
+        <v>131.69999999999999</v>
       </c>
       <c r="E86" s="1">
         <v>2.5</v>
@@ -3479,1688 +3476,1676 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>176</v>
+        <v>366</v>
       </c>
       <c r="B87" t="s">
-        <v>177</v>
+        <v>367</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
       </c>
       <c r="D87" s="1">
-        <v>110.025424</v>
+        <v>131.356188</v>
       </c>
       <c r="E87" s="1">
-        <v>2.6</v>
+        <v>33.299999999999997</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>178</v>
+        <v>310</v>
       </c>
       <c r="B88" t="s">
-        <v>179</v>
+        <v>311</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
       </c>
       <c r="D88" s="1">
-        <v>149.9</v>
+        <v>130.97573299999999</v>
       </c>
       <c r="E88" s="1">
-        <v>2.7</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>180</v>
+        <v>314</v>
       </c>
       <c r="B89" t="s">
-        <v>181</v>
+        <v>315</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
       </c>
       <c r="D89" s="1">
-        <v>115.247722</v>
+        <v>130.160686</v>
       </c>
       <c r="E89" s="1">
-        <v>2.7</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="B90" t="s">
-        <v>183</v>
+        <v>69</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
       </c>
       <c r="D90" s="1">
-        <v>971.015579</v>
+        <v>129.56630000000001</v>
       </c>
       <c r="E90" s="1">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="B91" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
       </c>
       <c r="D91" s="1">
-        <v>132.05778599999999</v>
+        <v>129.47351399999999</v>
       </c>
       <c r="E91" s="1">
-        <v>2.8</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="B92" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
       </c>
       <c r="D92" s="1">
-        <v>105.468559</v>
+        <v>128.61823200000001</v>
       </c>
       <c r="E92" s="1">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>188</v>
+        <v>340</v>
       </c>
       <c r="B93" t="s">
-        <v>189</v>
+        <v>341</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
       </c>
       <c r="D93" s="1">
-        <v>126.58684700000001</v>
+        <v>127.989125</v>
       </c>
       <c r="E93" s="1">
-        <v>3</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>190</v>
+        <v>266</v>
       </c>
       <c r="B94" t="s">
-        <v>191</v>
+        <v>267</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
       </c>
       <c r="D94" s="1">
-        <v>155.39521500000001</v>
+        <v>127.562517</v>
       </c>
       <c r="E94" s="1">
-        <v>3.1</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="B95" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
       </c>
       <c r="D95" s="1">
-        <v>158.44855000000001</v>
+        <v>127.33302</v>
       </c>
       <c r="E95" s="1">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="B96" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
       </c>
       <c r="D96" s="1">
-        <v>114.467956</v>
+        <v>127.123863</v>
       </c>
       <c r="E96" s="1">
-        <v>3.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="B97" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
       </c>
       <c r="D97" s="1">
-        <v>219.251484</v>
+        <v>126.671645</v>
       </c>
       <c r="E97" s="1">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="B98" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
       </c>
       <c r="D98" s="1">
-        <v>174.25227699999999</v>
+        <v>126.58797199999999</v>
       </c>
       <c r="E98" s="1">
-        <v>4</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B99" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C99" t="s">
         <v>7</v>
       </c>
       <c r="D99" s="1">
-        <v>136.35886199999999</v>
+        <v>126.58684700000001</v>
       </c>
       <c r="E99" s="1">
-        <v>4.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="B100" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
       </c>
       <c r="D100" s="1">
-        <v>172.18510800000001</v>
+        <v>126.47829400000001</v>
       </c>
       <c r="E100" s="1">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>204</v>
+        <v>354</v>
       </c>
       <c r="B101" t="s">
-        <v>205</v>
+        <v>355</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
       </c>
       <c r="D101" s="1">
-        <v>111.02165100000001</v>
+        <v>126.3793</v>
       </c>
       <c r="E101" s="1">
-        <v>4.3</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="B102" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
       </c>
       <c r="D102" s="1">
-        <v>118.25973500000001</v>
+        <v>126.373131</v>
       </c>
       <c r="E102" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="C103" t="s">
         <v>7</v>
       </c>
       <c r="D103" s="1">
-        <v>104.581489</v>
+        <v>125.393333</v>
       </c>
       <c r="E103" s="1">
-        <v>4.4000000000000004</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="B104" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="C104" t="s">
         <v>7</v>
       </c>
       <c r="D104" s="1">
-        <v>127.123863</v>
+        <v>125.21743600000001</v>
       </c>
       <c r="E104" s="1">
-        <v>4.4000000000000004</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="B105" t="s">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="C105" t="s">
         <v>7</v>
       </c>
       <c r="D105" s="1">
-        <v>126.671645</v>
+        <v>124.86412799999999</v>
       </c>
       <c r="E105" s="1">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="B106" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="C106" t="s">
         <v>7</v>
       </c>
       <c r="D106" s="1">
-        <v>129.47351399999999</v>
+        <v>123.35</v>
       </c>
       <c r="E106" s="1">
-        <v>4.5999999999999996</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="B107" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
       </c>
       <c r="D107" s="1">
-        <v>145.44933599999999</v>
+        <v>123.04089399999999</v>
       </c>
       <c r="E107" s="1">
-        <v>4.5999999999999996</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>218</v>
+        <v>296</v>
       </c>
       <c r="B108" t="s">
-        <v>219</v>
+        <v>297</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
       </c>
       <c r="D108" s="1">
-        <v>145.55068399999999</v>
+        <v>122.942803</v>
       </c>
       <c r="E108" s="1">
-        <v>4.5999999999999996</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="B109" t="s">
-        <v>221</v>
+        <v>37</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
       </c>
       <c r="D109" s="1">
-        <v>126.373131</v>
+        <v>121.936277</v>
       </c>
       <c r="E109" s="1">
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B110" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
       </c>
       <c r="D110" s="1">
-        <v>118.248389</v>
+        <v>121.711111</v>
       </c>
       <c r="E110" s="1">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
       <c r="B111" t="s">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
       </c>
       <c r="D111" s="1">
-        <v>115.961212</v>
+        <v>121.703627</v>
       </c>
       <c r="E111" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="B112" t="s">
-        <v>227</v>
+        <v>85</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
       </c>
       <c r="D112" s="1">
-        <v>140.48623599999999</v>
+        <v>121.7</v>
       </c>
       <c r="E112" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>228</v>
+        <v>158</v>
       </c>
       <c r="B113" t="s">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
       </c>
       <c r="D113" s="1">
-        <v>121.711111</v>
+        <v>121.607945</v>
       </c>
       <c r="E113" s="1">
-        <v>5.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>230</v>
+        <v>22</v>
       </c>
       <c r="B114" t="s">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
       </c>
       <c r="D114" s="1">
-        <v>133.64243999999999</v>
+        <v>121.21906</v>
       </c>
       <c r="E114" s="1">
-        <v>5.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="B115" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="C115" t="s">
         <v>7</v>
       </c>
       <c r="D115" s="1">
-        <v>123.04089399999999</v>
+        <v>121.079431</v>
       </c>
       <c r="E115" s="1">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>235</v>
+        <v>15</v>
       </c>
       <c r="C116" t="s">
         <v>7</v>
       </c>
       <c r="D116" s="1">
-        <v>4893.0079100000003</v>
+        <v>120.67914</v>
       </c>
       <c r="E116" s="1">
-        <v>5.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>236</v>
+        <v>122</v>
       </c>
       <c r="B117" t="s">
-        <v>237</v>
+        <v>123</v>
       </c>
       <c r="C117" t="s">
         <v>7</v>
       </c>
       <c r="D117" s="1">
-        <v>112.750274</v>
+        <v>120.151996</v>
       </c>
       <c r="E117" s="1">
-        <v>5.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>238</v>
+        <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>239</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
         <v>7</v>
       </c>
       <c r="D118" s="1">
-        <v>126.58797199999999</v>
+        <v>120.128525</v>
       </c>
       <c r="E118" s="1">
-        <v>5.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="B119" t="s">
-        <v>241</v>
+        <v>131</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
       </c>
       <c r="D119" s="1">
-        <v>111.688248</v>
+        <v>120.05</v>
       </c>
       <c r="E119" s="1">
-        <v>5.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>242</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>243</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>7</v>
       </c>
       <c r="D120" s="1">
-        <v>104.683024</v>
+        <v>119.95963</v>
       </c>
       <c r="E120" s="1">
-        <v>5.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>244</v>
+        <v>356</v>
       </c>
       <c r="B121" t="s">
-        <v>245</v>
+        <v>357</v>
       </c>
       <c r="C121" t="s">
         <v>7</v>
       </c>
       <c r="D121" s="1">
-        <v>151.907792</v>
+        <v>119.91834799999999</v>
       </c>
       <c r="E121" s="1">
-        <v>5.7</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
       </c>
       <c r="D122" s="1">
-        <v>127.33302</v>
+        <v>119.388002</v>
       </c>
       <c r="E122" s="1">
-        <v>5.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>248</v>
+        <v>74</v>
       </c>
       <c r="B123" t="s">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="C123" t="s">
         <v>7</v>
       </c>
       <c r="D123" s="1">
-        <v>117.326426</v>
+        <v>119.344388</v>
       </c>
       <c r="E123" s="1">
-        <v>5.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
       </c>
       <c r="D124" s="1">
-        <v>212.01289399999999</v>
+        <v>119.32396</v>
       </c>
       <c r="E124" s="1">
-        <v>5.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="B125" t="s">
-        <v>253</v>
+        <v>143</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
       </c>
       <c r="D125" s="1">
-        <v>132.188335</v>
+        <v>119.16766</v>
       </c>
       <c r="E125" s="1">
-        <v>5.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>254</v>
+        <v>58</v>
       </c>
       <c r="B126" t="s">
-        <v>255</v>
+        <v>59</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
       </c>
       <c r="D126" s="1">
-        <v>136.731694</v>
+        <v>119.027939</v>
       </c>
       <c r="E126" s="1">
-        <v>5.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>256</v>
+        <v>154</v>
       </c>
       <c r="B127" t="s">
-        <v>257</v>
+        <v>155</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
       </c>
       <c r="D127" s="1">
-        <v>152.205658</v>
+        <v>118.70692</v>
       </c>
       <c r="E127" s="1">
-        <v>6.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>258</v>
+        <v>120</v>
       </c>
       <c r="B128" t="s">
-        <v>259</v>
+        <v>121</v>
       </c>
       <c r="C128" t="s">
         <v>7</v>
       </c>
       <c r="D128" s="1">
-        <v>255.31961100000001</v>
+        <v>118.32</v>
       </c>
       <c r="E128" s="1">
-        <v>6.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="B129" t="s">
-        <v>261</v>
+        <v>207</v>
       </c>
       <c r="C129" t="s">
         <v>7</v>
       </c>
       <c r="D129" s="1">
-        <v>640.58297200000004</v>
+        <v>118.25973500000001</v>
       </c>
       <c r="E129" s="1">
-        <v>6.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="B130" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="C130" t="s">
         <v>7</v>
       </c>
       <c r="D130" s="1">
-        <v>117.090935</v>
+        <v>118.248389</v>
       </c>
       <c r="E130" s="1">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="B131" t="s">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
       </c>
       <c r="D131" s="1">
-        <v>137.23385099999999</v>
+        <v>118.2321</v>
       </c>
       <c r="E131" s="1">
-        <v>6.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>266</v>
+        <v>170</v>
       </c>
       <c r="B132" t="s">
-        <v>267</v>
+        <v>171</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
       </c>
       <c r="D132" s="1">
-        <v>127.562517</v>
+        <v>118.17542400000001</v>
       </c>
       <c r="E132" s="1">
-        <v>6.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>268</v>
+        <v>82</v>
       </c>
       <c r="B133" t="s">
-        <v>269</v>
+        <v>83</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
       </c>
       <c r="D133" s="1">
-        <v>112.521609</v>
+        <v>117.885795</v>
       </c>
       <c r="E133" s="1">
-        <v>7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B134" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
       </c>
       <c r="D134" s="1">
-        <v>107.158726</v>
+        <v>117.53895300000001</v>
       </c>
       <c r="E134" s="1">
-        <v>7</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="B135" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
       </c>
       <c r="D135" s="1">
-        <v>145.97813199999999</v>
+        <v>117.52726699999999</v>
       </c>
       <c r="E135" s="1">
-        <v>7.4</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="B136" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
       </c>
       <c r="D136" s="1">
-        <v>215.498538</v>
+        <v>117.326426</v>
       </c>
       <c r="E136" s="1">
-        <v>7.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="B137" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
       </c>
       <c r="D137" s="1">
-        <v>105.48918999999999</v>
+        <v>117.090935</v>
       </c>
       <c r="E137" s="1">
-        <v>8.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="B138" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="1">
-        <v>176.529436</v>
+        <v>116.955291</v>
       </c>
       <c r="E138" s="1">
-        <v>8.6999999999999993</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>280</v>
+        <v>66</v>
       </c>
       <c r="B139" t="s">
-        <v>281</v>
+        <v>67</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
       </c>
       <c r="D139" s="1">
-        <v>117.53895300000001</v>
+        <v>116.634242</v>
       </c>
       <c r="E139" s="1">
-        <v>8.8000000000000007</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="B140" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
       </c>
       <c r="D140" s="1">
-        <v>730.37021500000003</v>
+        <v>116.209819</v>
       </c>
       <c r="E140" s="1">
-        <v>9.1</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>284</v>
+        <v>90</v>
       </c>
       <c r="B141" t="s">
-        <v>285</v>
+        <v>91</v>
       </c>
       <c r="C141" t="s">
         <v>7</v>
       </c>
       <c r="D141" s="1">
-        <v>108.41071700000001</v>
+        <v>116</v>
       </c>
       <c r="E141" s="1">
-        <v>9.1999999999999993</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="B142" t="s">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="C142" t="s">
         <v>7</v>
       </c>
       <c r="D142" s="1">
-        <v>6456.7022370000004</v>
+        <v>115.961212</v>
       </c>
       <c r="E142" s="1">
-        <v>9.1999999999999993</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>288</v>
+        <v>48</v>
       </c>
       <c r="B143" t="s">
-        <v>289</v>
+        <v>49</v>
       </c>
       <c r="C143" t="s">
         <v>7</v>
       </c>
       <c r="D143" s="1">
-        <v>234.37659099999999</v>
+        <v>115.535107</v>
       </c>
       <c r="E143" s="1">
-        <v>9.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="B144" t="s">
-        <v>291</v>
+        <v>181</v>
       </c>
       <c r="C144" t="s">
         <v>7</v>
       </c>
       <c r="D144" s="1">
-        <v>135.81716700000001</v>
+        <v>115.247722</v>
       </c>
       <c r="E144" s="1">
-        <v>10.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>292</v>
+        <v>56</v>
       </c>
       <c r="B145" t="s">
-        <v>293</v>
+        <v>57</v>
       </c>
       <c r="C145" t="s">
         <v>7</v>
       </c>
       <c r="D145" s="1">
-        <v>292.92170700000003</v>
+        <v>115.10941200000001</v>
       </c>
       <c r="E145" s="1">
-        <v>10.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>294</v>
+        <v>96</v>
       </c>
       <c r="B146" t="s">
-        <v>295</v>
+        <v>97</v>
       </c>
       <c r="C146" t="s">
         <v>7</v>
       </c>
       <c r="D146" s="1">
-        <v>176.731908</v>
+        <v>114.75</v>
       </c>
       <c r="E146" s="1">
-        <v>10.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>296</v>
+        <v>194</v>
       </c>
       <c r="B147" t="s">
-        <v>297</v>
+        <v>195</v>
       </c>
       <c r="C147" t="s">
         <v>7</v>
       </c>
       <c r="D147" s="1">
-        <v>122.942803</v>
+        <v>114.467956</v>
       </c>
       <c r="E147" s="1">
-        <v>11</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>298</v>
+        <v>110</v>
       </c>
       <c r="B148" t="s">
-        <v>299</v>
+        <v>111</v>
       </c>
       <c r="C148" t="s">
         <v>7</v>
       </c>
       <c r="D148" s="1">
-        <v>315532000000</v>
+        <v>114.4</v>
       </c>
       <c r="E148" s="1">
-        <v>11.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="B149" t="s">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="C149" t="s">
         <v>7</v>
       </c>
       <c r="D149" s="1">
-        <v>145.08532299999999</v>
+        <v>114.15372000000001</v>
       </c>
       <c r="E149" s="1">
-        <v>11.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>302</v>
+        <v>132</v>
       </c>
       <c r="B150" t="s">
-        <v>303</v>
+        <v>133</v>
       </c>
       <c r="C150" t="s">
         <v>7</v>
       </c>
       <c r="D150" s="1">
-        <v>135.29825299999999</v>
+        <v>114.00696600000001</v>
       </c>
       <c r="E150" s="1">
-        <v>11.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>304</v>
+        <v>32</v>
       </c>
       <c r="B151" t="s">
-        <v>305</v>
+        <v>33</v>
       </c>
       <c r="C151" t="s">
         <v>7</v>
       </c>
       <c r="D151" s="1">
-        <v>176.615601</v>
+        <v>113.526945</v>
       </c>
       <c r="E151" s="1">
-        <v>11.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="B152" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C152" t="s">
         <v>7</v>
       </c>
       <c r="D152" s="1">
-        <v>116.955291</v>
+        <v>113.48288100000001</v>
       </c>
       <c r="E152" s="1">
-        <v>12.2</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="B153" t="s">
-        <v>309</v>
+        <v>27</v>
       </c>
       <c r="C153" t="s">
         <v>7</v>
       </c>
       <c r="D153" s="1">
-        <v>117.52726699999999</v>
+        <v>113.315945</v>
       </c>
       <c r="E153" s="1">
-        <v>12.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="B154" t="s">
-        <v>311</v>
+        <v>237</v>
       </c>
       <c r="C154" t="s">
         <v>7</v>
       </c>
       <c r="D154" s="1">
-        <v>164.10015899999999</v>
+        <v>112.750274</v>
       </c>
       <c r="E154" s="1">
-        <v>12.6</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>312</v>
+        <v>168</v>
       </c>
       <c r="B155" t="s">
-        <v>313</v>
+        <v>169</v>
       </c>
       <c r="C155" t="s">
         <v>7</v>
       </c>
       <c r="D155" s="1">
-        <v>130.97573299999999</v>
+        <v>112.6</v>
       </c>
       <c r="E155" s="1">
-        <v>12.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="B156" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="C156" t="s">
         <v>7</v>
       </c>
       <c r="D156" s="1">
-        <v>137.91769199999999</v>
+        <v>112.521609</v>
       </c>
       <c r="E156" s="1">
-        <v>13.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>316</v>
+        <v>94</v>
       </c>
       <c r="B157" t="s">
-        <v>317</v>
+        <v>95</v>
       </c>
       <c r="C157" t="s">
         <v>7</v>
       </c>
       <c r="D157" s="1">
-        <v>130.160686</v>
+        <v>112.5</v>
       </c>
       <c r="E157" s="1">
-        <v>13.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>318</v>
+        <v>40</v>
       </c>
       <c r="B158" t="s">
-        <v>319</v>
+        <v>41</v>
       </c>
       <c r="C158" t="s">
         <v>7</v>
       </c>
       <c r="D158" s="1">
-        <v>479.08714199999997</v>
+        <v>112.223727</v>
       </c>
       <c r="E158" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="B159" t="s">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="C159" t="s">
         <v>7</v>
       </c>
       <c r="D159" s="1">
-        <v>339.79650600000002</v>
+        <v>111.688248</v>
       </c>
       <c r="E159" s="1">
-        <v>14</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B160" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C160" t="s">
         <v>7</v>
       </c>
       <c r="D160" s="1">
-        <v>113.48288100000001</v>
+        <v>111.637186</v>
       </c>
       <c r="E160" s="1">
-        <v>14.1</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="B161" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="C161" t="s">
         <v>7</v>
       </c>
       <c r="D161" s="1">
-        <v>116.209819</v>
+        <v>111.330376</v>
       </c>
       <c r="E161" s="1">
-        <v>14.5</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>326</v>
+        <v>204</v>
       </c>
       <c r="B162" t="s">
-        <v>327</v>
+        <v>205</v>
       </c>
       <c r="C162" t="s">
         <v>7</v>
       </c>
       <c r="D162" s="1">
-        <v>270.44344999999998</v>
+        <v>111.02165100000001</v>
       </c>
       <c r="E162" s="1">
-        <v>15.5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>328</v>
+        <v>18</v>
       </c>
       <c r="B163" t="s">
-        <v>329</v>
+        <v>19</v>
       </c>
       <c r="C163" t="s">
         <v>7</v>
       </c>
       <c r="D163" s="1">
-        <v>177.83291299999999</v>
+        <v>110.63306300000001</v>
       </c>
       <c r="E163" s="1">
-        <v>15.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>330</v>
+        <v>86</v>
       </c>
       <c r="B164" t="s">
-        <v>331</v>
+        <v>87</v>
       </c>
       <c r="C164" t="s">
         <v>7</v>
       </c>
       <c r="D164" s="1">
-        <v>109.61012700000001</v>
+        <v>110.53</v>
       </c>
       <c r="E164" s="1">
-        <v>15.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>332</v>
+        <v>136</v>
       </c>
       <c r="B165" t="s">
-        <v>333</v>
+        <v>137</v>
       </c>
       <c r="C165" t="s">
         <v>7</v>
       </c>
       <c r="D165" s="1">
-        <v>111.637186</v>
+        <v>110.4</v>
       </c>
       <c r="E165" s="1">
-        <v>17.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>334</v>
+        <v>176</v>
       </c>
       <c r="B166" t="s">
-        <v>335</v>
+        <v>177</v>
       </c>
       <c r="C166" t="s">
         <v>7</v>
       </c>
       <c r="D166" s="1">
-        <v>140.30956</v>
+        <v>110.025424</v>
       </c>
       <c r="E166" s="1">
-        <v>17.600000000000001</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B167" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C167" t="s">
         <v>7</v>
       </c>
       <c r="D167" s="1">
-        <v>149.59157500000001</v>
+        <v>109.61012700000001</v>
       </c>
       <c r="E167" s="1">
-        <v>19.100000000000001</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>338</v>
+        <v>108</v>
       </c>
       <c r="B168" t="s">
-        <v>339</v>
+        <v>109</v>
       </c>
       <c r="C168" t="s">
         <v>7</v>
       </c>
       <c r="D168" s="1">
-        <v>7726.5243810000002</v>
+        <v>108.743324</v>
       </c>
       <c r="E168" s="1">
-        <v>19.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>340</v>
+        <v>24</v>
       </c>
       <c r="B169" t="s">
-        <v>341</v>
+        <v>25</v>
       </c>
       <c r="C169" t="s">
         <v>7</v>
       </c>
       <c r="D169" s="1">
-        <v>163.012382</v>
+        <v>108.486695</v>
       </c>
       <c r="E169" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>342</v>
+        <v>284</v>
       </c>
       <c r="B170" t="s">
-        <v>343</v>
+        <v>285</v>
       </c>
       <c r="C170" t="s">
         <v>7</v>
       </c>
       <c r="D170" s="1">
-        <v>127.989125</v>
+        <v>108.41071700000001</v>
       </c>
       <c r="E170" s="1">
-        <v>20.3</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>344</v>
+        <v>44</v>
       </c>
       <c r="B171" t="s">
-        <v>345</v>
+        <v>45</v>
       </c>
       <c r="C171" t="s">
         <v>7</v>
       </c>
       <c r="D171" s="1">
-        <v>181.23598200000001</v>
+        <v>107.82478500000001</v>
       </c>
       <c r="E171" s="1">
-        <v>20.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>346</v>
+        <v>270</v>
       </c>
       <c r="B172" t="s">
-        <v>347</v>
+        <v>271</v>
       </c>
       <c r="C172" t="s">
         <v>7</v>
       </c>
       <c r="D172" s="1">
-        <v>144.63201900000001</v>
+        <v>107.158726</v>
       </c>
       <c r="E172" s="1">
-        <v>21.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>348</v>
+        <v>28</v>
       </c>
       <c r="B173" t="s">
-        <v>349</v>
+        <v>29</v>
       </c>
       <c r="C173" t="s">
         <v>7</v>
       </c>
       <c r="D173" s="1">
-        <v>289.65348399999999</v>
+        <v>106.732547</v>
       </c>
       <c r="E173" s="1">
-        <v>24.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>350</v>
+        <v>38</v>
       </c>
       <c r="B174" t="s">
-        <v>351</v>
+        <v>39</v>
       </c>
       <c r="C174" t="s">
         <v>7</v>
       </c>
       <c r="D174" s="1">
-        <v>204.826221</v>
+        <v>106.499259</v>
       </c>
       <c r="E174" s="1">
-        <v>24.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>352</v>
+        <v>42</v>
       </c>
       <c r="B175" t="s">
-        <v>353</v>
+        <v>43</v>
       </c>
       <c r="C175" t="s">
         <v>7</v>
       </c>
       <c r="D175" s="1">
-        <v>103.12581299999999</v>
+        <v>106.27377300000001</v>
       </c>
       <c r="E175" s="1">
-        <v>25.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>354</v>
+        <v>276</v>
       </c>
       <c r="B176" t="s">
-        <v>355</v>
+        <v>277</v>
       </c>
       <c r="C176" t="s">
         <v>7</v>
       </c>
       <c r="D176" s="1">
-        <v>111.330376</v>
+        <v>105.48918999999999</v>
       </c>
       <c r="E176" s="1">
-        <v>26.8</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>356</v>
+        <v>186</v>
       </c>
       <c r="B177" t="s">
-        <v>357</v>
+        <v>187</v>
       </c>
       <c r="C177" t="s">
         <v>7</v>
       </c>
       <c r="D177" s="1">
-        <v>126.3793</v>
+        <v>105.468559</v>
       </c>
       <c r="E177" s="1">
-        <v>26.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>358</v>
+        <v>242</v>
       </c>
       <c r="B178" t="s">
-        <v>359</v>
+        <v>243</v>
       </c>
       <c r="C178" t="s">
         <v>7</v>
       </c>
       <c r="D178" s="1">
-        <v>119.91834799999999</v>
+        <v>104.683024</v>
       </c>
       <c r="E178" s="1">
-        <v>27.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>360</v>
+        <v>34</v>
       </c>
       <c r="B179" t="s">
-        <v>361</v>
+        <v>35</v>
       </c>
       <c r="C179" t="s">
         <v>7</v>
       </c>
       <c r="D179" s="1">
-        <v>254.611244</v>
+        <v>104.657467</v>
       </c>
       <c r="E179" s="1">
-        <v>30.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>362</v>
+        <v>208</v>
       </c>
       <c r="B180" t="s">
-        <v>363</v>
+        <v>209</v>
       </c>
       <c r="C180" t="s">
         <v>7</v>
       </c>
       <c r="D180" s="1">
-        <v>161.51747499999999</v>
+        <v>104.581489</v>
       </c>
       <c r="E180" s="1">
-        <v>30.8</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>364</v>
+        <v>46</v>
       </c>
       <c r="B181" t="s">
-        <v>365</v>
+        <v>47</v>
       </c>
       <c r="C181" t="s">
         <v>7</v>
       </c>
       <c r="D181" s="1">
-        <v>165.614273</v>
+        <v>104.46483499999999</v>
       </c>
       <c r="E181" s="1">
-        <v>31.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="B182" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="C182" t="s">
         <v>7</v>
       </c>
       <c r="D182" s="1">
-        <v>14659.34245</v>
+        <v>103.12581299999999</v>
       </c>
       <c r="E182" s="1">
-        <v>33</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>368</v>
+        <v>162</v>
       </c>
       <c r="B183" t="s">
-        <v>369</v>
+        <v>163</v>
       </c>
       <c r="C183" t="s">
         <v>7</v>
       </c>
       <c r="D183" s="1">
-        <v>131.356188</v>
+        <v>101.987809</v>
       </c>
       <c r="E183" s="1">
-        <v>33.299999999999997</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>370</v>
+        <v>106</v>
       </c>
       <c r="B184" t="s">
-        <v>371</v>
+        <v>107</v>
       </c>
       <c r="C184" t="s">
         <v>7</v>
       </c>
       <c r="D184" s="1">
-        <v>327.63935700000002</v>
+        <v>96.428146999999996</v>
       </c>
       <c r="E184" s="1">
-        <v>38.299999999999997</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A185" t="s">
-        <v>372</v>
-      </c>
-      <c r="B185" t="s">
-        <v>373</v>
-      </c>
-      <c r="C185" t="s">
-        <v>7</v>
-      </c>
-      <c r="D185" s="1">
-        <v>147.70191700000001</v>
-      </c>
-      <c r="E185" s="1">
-        <v>50.7</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{FDAAF561-153F-43E1-9F22-78CAC155B7C0}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E185">
+      <sortCondition descending="1" ref="D1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>